--- a/agriculture 1.xlsx
+++ b/agriculture 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODL website\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54939267-6A95-4E9E-859F-776FADBB2947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51851E4D-9D14-438C-974C-4B19F05843F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD275C29-13E4-4688-91EE-6B230551D453}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{145F5E9F-3640-4AB7-AD56-9E601D236484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,70 +25,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Scheme</t>
-  </si>
-  <si>
-    <t>X PLAN</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Achievement</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2006-07p</t>
-  </si>
-  <si>
-    <t>Rubber Planation Development</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>Processing, Quality Upgradation &amp; Product Diversification</t>
-  </si>
-  <si>
-    <t>Export Promotion</t>
-  </si>
-  <si>
-    <t>Market Development</t>
-  </si>
-  <si>
-    <t>Human Resource Development</t>
-  </si>
-  <si>
-    <t>Rubber Development in NE region</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Non plan</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t>Kollam</t>
+  </si>
+  <si>
+    <t>Pathanamthitta</t>
+  </si>
+  <si>
+    <t>Alappuzha</t>
+  </si>
+  <si>
+    <t>Kottayam</t>
+  </si>
+  <si>
+    <t>Idukki</t>
+  </si>
+  <si>
+    <t>Ernakulam</t>
+  </si>
+  <si>
+    <t>Thrissur</t>
+  </si>
+  <si>
+    <t>Palakkad</t>
+  </si>
+  <si>
+    <t>Malappuram</t>
+  </si>
+  <si>
+    <t>Kozhikode</t>
+  </si>
+  <si>
+    <t>Wayanad</t>
+  </si>
+  <si>
+    <t>Kannur</t>
+  </si>
+  <si>
+    <t>Kasaragod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1998-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1999-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2000-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2001-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2002-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2003-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2004-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2005-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2006-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2007-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2008-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2009-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2010-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2011-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2012-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2014-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,17 +151,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,21 +175,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,366 +513,1098 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF241696-2945-40E7-915F-46C9606714DA}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722D1301-8DD7-4E5B-B58F-E0B6354FEBC4}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1389</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1390</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1213</v>
+      </c>
+      <c r="E2" s="2">
+        <v>324</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1813</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1771</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3026</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2475</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4612</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5083</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1519</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3726</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1453</v>
+      </c>
+      <c r="O2" s="2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1599</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1489</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1669</v>
+      </c>
+      <c r="E3" s="2">
+        <v>536</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2655</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1138</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4200</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2791</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5279</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7049</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1667</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6342</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1840</v>
+      </c>
+      <c r="O3" s="2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>132.72999999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>26.34</v>
-      </c>
-      <c r="D4" s="1">
-        <v>22.78</v>
-      </c>
-      <c r="E4" s="1">
-        <v>31.07</v>
-      </c>
-      <c r="F4" s="1">
-        <v>36.369999999999997</v>
-      </c>
-      <c r="G4" s="1">
-        <v>34.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2149</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1743</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1975</v>
+      </c>
+      <c r="E4" s="2">
+        <v>595</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2885</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1306</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4737</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2810</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5931</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7136</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1839</v>
+      </c>
+      <c r="M4" s="2">
+        <v>8935</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2035</v>
+      </c>
+      <c r="O4" s="2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>47.75</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6.08</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8.56</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="G5" s="1">
-        <v>12.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2333</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1613</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2083</v>
+      </c>
+      <c r="E5" s="2">
+        <v>553</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3260</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1567</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5447</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2828</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7414</v>
+      </c>
+      <c r="K5" s="2">
+        <v>8420</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1949</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10174</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2480</v>
+      </c>
+      <c r="O5" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>57.65</v>
-      </c>
-      <c r="C6" s="1">
-        <v>13.89</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12.29</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9.93</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.68</v>
-      </c>
-      <c r="G6" s="1">
-        <v>13.19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2496</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2055</v>
+      </c>
+      <c r="E6" s="2">
+        <v>470</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3394</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1602</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6410</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2844</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8155</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9804</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1963</v>
+      </c>
+      <c r="M6" s="2">
+        <v>11466</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2445</v>
+      </c>
+      <c r="O6" s="2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>63.77</v>
-      </c>
-      <c r="C7" s="1">
-        <v>18.670000000000002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>25.66</v>
-      </c>
-      <c r="E7" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2353</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2343</v>
+      </c>
+      <c r="E7" s="2">
+        <v>553</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3107</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1648</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5872</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2532</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10096</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8963</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1993</v>
+      </c>
+      <c r="M7" s="2">
+        <v>11819</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2310</v>
+      </c>
+      <c r="O7" s="2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.27</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2492</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2483</v>
+      </c>
+      <c r="E8" s="2">
+        <v>564</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3200</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1748</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6107</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2713</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10705</v>
+      </c>
+      <c r="K8" s="2">
+        <v>9498</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2092</v>
+      </c>
+      <c r="M8" s="2">
+        <v>12278</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2493</v>
+      </c>
+      <c r="O8" s="2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>15.6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.07</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.91</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4.46</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7.86</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2575</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1772</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2583</v>
+      </c>
+      <c r="E9" s="2">
+        <v>578</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3342</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1828</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6308</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2919</v>
+      </c>
+      <c r="J9" s="2">
+        <v>11248</v>
+      </c>
+      <c r="K9" s="2">
+        <v>9897</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2165</v>
+      </c>
+      <c r="M9" s="2">
+        <v>12842</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2554</v>
+      </c>
+      <c r="O9" s="2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>84</v>
-      </c>
-      <c r="C10" s="1">
-        <v>11.76</v>
-      </c>
-      <c r="D10" s="1">
-        <v>13.56</v>
-      </c>
-      <c r="E10" s="1">
-        <v>15.86</v>
-      </c>
-      <c r="F10" s="1">
-        <v>18.57</v>
-      </c>
-      <c r="G10" s="1">
-        <v>18.260000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>2257</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1917</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2599</v>
+      </c>
+      <c r="E10" s="2">
+        <v>601</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2637</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1971</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6855</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2980</v>
+      </c>
+      <c r="J10" s="2">
+        <v>11007</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9048</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1880</v>
+      </c>
+      <c r="M10" s="2">
+        <v>11885</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2728</v>
+      </c>
+      <c r="O10" s="2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>415</v>
+        <v>2078</v>
       </c>
       <c r="C11" s="2">
-        <v>84.08</v>
+        <v>2053</v>
       </c>
       <c r="D11" s="2">
-        <v>90.05</v>
+        <v>2513</v>
       </c>
       <c r="E11" s="2">
-        <v>90.68</v>
+        <v>635</v>
       </c>
       <c r="F11" s="2">
-        <v>82.05</v>
+        <v>3061</v>
       </c>
       <c r="G11" s="2">
-        <v>90.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>2559</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6115</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3107</v>
+      </c>
+      <c r="J11" s="2">
+        <v>12940</v>
+      </c>
+      <c r="K11" s="2">
+        <v>7308</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1983</v>
+      </c>
+      <c r="M11" s="2">
+        <v>12123</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2181</v>
+      </c>
+      <c r="O11" s="2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2689</v>
+      </c>
       <c r="C12" s="2">
-        <v>12.67</v>
+        <v>1806</v>
       </c>
       <c r="D12" s="2">
-        <v>14.87</v>
+        <v>1994</v>
       </c>
       <c r="E12" s="2">
-        <v>18.36</v>
+        <v>563</v>
       </c>
       <c r="F12" s="2">
-        <v>17.850000000000001</v>
+        <v>2904</v>
       </c>
       <c r="G12" s="2">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>2705</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6385</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2773</v>
+      </c>
+      <c r="J12" s="2">
+        <v>11517</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6391</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1412</v>
+      </c>
+      <c r="M12" s="2">
+        <v>10859</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2340</v>
+      </c>
+      <c r="O12" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2349</v>
+      </c>
       <c r="C13" s="2">
-        <v>96.75</v>
+        <v>2068</v>
       </c>
       <c r="D13" s="2">
-        <v>104.92</v>
+        <v>2032</v>
       </c>
       <c r="E13" s="2">
-        <v>109.04</v>
+        <v>538</v>
       </c>
       <c r="F13" s="2">
-        <v>99.9</v>
+        <v>2839</v>
       </c>
       <c r="G13" s="2">
-        <v>109.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E22">
-        <v>6</v>
+        <v>2541</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6500</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2464</v>
+      </c>
+      <c r="J13" s="2">
+        <v>10593</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6516</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1476</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8318</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2566</v>
+      </c>
+      <c r="O13" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2891.63</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2053.96</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2061.4699999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>660.15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2853.22</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2665.37</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6318.15</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2283.36</v>
+      </c>
+      <c r="J14" s="2">
+        <v>14231.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>7843.57</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1586.17</v>
+      </c>
+      <c r="M14" s="2">
+        <v>10466.5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2371.63</v>
+      </c>
+      <c r="O14" s="2">
+        <v>384.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1794.19</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1693.98</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1966.23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>454.95</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2520.52</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2900.57</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5669.4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2240.37</v>
+      </c>
+      <c r="J15" s="2">
+        <v>16458.23</v>
+      </c>
+      <c r="K15" s="2">
+        <v>6865.81</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1533.27</v>
+      </c>
+      <c r="M15" s="2">
+        <v>12358.78</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2103.7800000000002</v>
+      </c>
+      <c r="O15" s="2">
+        <v>509.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3567</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2295</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E16" s="2">
+        <v>631</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2518</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3080</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5586</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2141</v>
+      </c>
+      <c r="J16" s="2">
+        <v>15243</v>
+      </c>
+      <c r="K16" s="2">
+        <v>7529</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1700</v>
+      </c>
+      <c r="M16" s="2">
+        <v>12086</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2086</v>
+      </c>
+      <c r="O16" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2343</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2763</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2096</v>
+      </c>
+      <c r="E17" s="2">
+        <v>472</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2498</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3211</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5638</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2388</v>
+      </c>
+      <c r="J17" s="2">
+        <v>17427</v>
+      </c>
+      <c r="K17" s="2">
+        <v>7740</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1633</v>
+      </c>
+      <c r="M17" s="2">
+        <v>11579</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1986</v>
+      </c>
+      <c r="O17" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2329</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2443</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2182</v>
+      </c>
+      <c r="E18" s="2">
+        <v>450</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2734</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3469</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4904</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2297</v>
+      </c>
+      <c r="J18" s="2">
+        <v>18628</v>
+      </c>
+      <c r="K18" s="2">
+        <v>6986</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1832</v>
+      </c>
+      <c r="M18" s="2">
+        <v>10719</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2298</v>
+      </c>
+      <c r="O18" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2675.82</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2883.7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2058.66</v>
+      </c>
+      <c r="E19" s="2">
+        <v>475.87</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2948.31</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3485.79</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4992.72</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2164.91</v>
+      </c>
+      <c r="J19" s="2">
+        <v>15735.95</v>
+      </c>
+      <c r="K19" s="2">
+        <v>7762.19</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1938.3</v>
+      </c>
+      <c r="M19" s="2">
+        <v>9738.81</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2328.46</v>
+      </c>
+      <c r="O19" s="2">
+        <v>645.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2747</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2076</v>
+      </c>
+      <c r="E20" s="2">
+        <v>519</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2750</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3495</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5158</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2213</v>
+      </c>
+      <c r="J20" s="2">
+        <v>15199</v>
+      </c>
+      <c r="K20" s="2">
+        <v>7120</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1864</v>
+      </c>
+      <c r="M20" s="2">
+        <v>8555</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="O20" s="2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2917</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3397</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2205</v>
+      </c>
+      <c r="E21" s="2">
+        <v>577</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3073</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3419</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5278</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2180</v>
+      </c>
+      <c r="J21" s="2">
+        <v>16722</v>
+      </c>
+      <c r="K21" s="2">
+        <v>7572</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1673</v>
+      </c>
+      <c r="M21" s="2">
+        <v>10003</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2405</v>
+      </c>
+      <c r="O21" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3113.97</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3455.49</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2215.2399999999998</v>
+      </c>
+      <c r="E22" s="2">
+        <v>318.45</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3252.49</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3319.8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4980.62</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1702.14</v>
+      </c>
+      <c r="J22" s="2">
+        <v>11997.72</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5683.18</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1454.63</v>
+      </c>
+      <c r="M22" s="2">
+        <v>8860.98</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1885.78</v>
+      </c>
+      <c r="O22" s="2">
+        <v>658.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3507</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3465</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2246</v>
+      </c>
+      <c r="E23" s="2">
+        <v>377</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3316</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3391</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5520</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2196</v>
+      </c>
+      <c r="J23" s="2">
+        <v>12710</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5591</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1737</v>
+      </c>
+      <c r="M23" s="2">
+        <v>13734</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2249</v>
+      </c>
+      <c r="O23" s="2">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>